--- a/Main Website/media/BAJAJ-CD/Billing/BAJAJ PAYOUT.xlsx
+++ b/Main Website/media/BAJAJ-CD/Billing/BAJAJ PAYOUT.xlsx
@@ -486,7 +486,7 @@
         <v>353893</v>
       </c>
       <c r="E2" t="n">
-        <v>1.824968501588637</v>
+        <v>1.82</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         <v>264337</v>
       </c>
       <c r="E3" t="n">
-        <v>1.552643153279348</v>
+        <v>1.55</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
